--- a/Datos/Database by set/Set with text box/Xlsx sets/Commander 2016 Oversized (OC16).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Commander 2016 Oversized (OC16).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,231 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Atraxa, Praetors' Voice</t>
+          <t>("Atraxa, Praetors' Voice", ['{G}{W}{U}{B}', 'Legendary Creature — Angel Horror', 'Flying, vigilance, deathtouch, lifelink', 'At the beginning of your end step, proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{G}{W}{U}{B}</t>
+          <t>('Breya, Etherium Shaper', ['{W}{U}{B}{R}', 'Legendary Artifact Creature — Human', 'When Breya, Etherium Shaper enters the battlefield, create two 1/1 blue Thopter artifact creature tokens with flying.', '{2}, Sacrifice two artifacts: Choose one —', '• Breya deals 3 damage to target player or planeswalker.', '• Target creature gets -4/-4 until end of turn.', '• You gain 5 life.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Legendary Creature — Angel Horror</t>
+          <t>('Kynaios and Tiro of Meletis', ['{R}{G}{W}{U}', 'Legendary Creature — Human Soldier', 'At the beginning of your end step, draw a card. Each player may put a land card from their hand onto the battlefield, then each opponent who didn’t draws a card.', '2/8'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying, vigilance, deathtouch, lifelink</t>
+          <t>('Saskia the Unyielding', ['{B}{R}{G}{W}', 'Legendary Creature — Human Soldier', 'Vigilance, haste', 'As Saskia the Unyielding enters the battlefield, choose a player.', 'Whenever a creature you control deals combat damage to a player, it deals that much damage to the chosen player.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>At the beginning of your end step, proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Breya, Etherium Shaper</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{W}{U}{B}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Legendary Artifact Creature — Human</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>When Breya, Etherium Shaper enters the battlefield, create two 1/1 blue Thopter artifact creature tokens with flying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{2}, Sacrifice two artifacts: Choose one —</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>• Breya deals 3 damage to target player or planeswalker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>• Target creature gets -4/-4 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>• You gain 5 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Kynaios and Tiro of Meletis</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{R}{G}{W}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>At the beginning of your end step, draw a card. Each player may put a land card from their hand onto the battlefield, then each opponent who didn’t draws a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2/8</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Saskia the Unyielding</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{B}{R}{G}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Vigilance, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>As Saskia the Unyielding enters the battlefield, choose a player.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Whenever a creature you control deals combat damage to a player, it deals that much damage to the chosen player.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>3/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Yidris, Maelstrom Wielder</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{U}{B}{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Ogre Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Whenever Yidris, Maelstrom Wielder deals combat damage to a player, as you cast spells from your hand this turn, they gain cascade. (When you cast the spell, exile cards from the top of your library until you exile a nonland card that costs less. You may cast it without paying its mana cost. Put the exiled cards on the bottom of your library in a random order.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>5/4</t>
+          <t>('Yidris, Maelstrom Wielder', ['{U}{B}{R}{G}', 'Legendary Creature — Ogre Wizard', 'Trample', 'Whenever Yidris, Maelstrom Wielder deals combat damage to a player, as you cast spells from your hand this turn, they gain cascade. (When you cast the spell, exile cards from the top of your library until you exile a nonland card that costs less. You may cast it without paying its mana cost. Put the exiled cards on the bottom of your library in a random order.)', '5/4'])</t>
         </is>
       </c>
     </row>
